--- a/AutoML CV/Transfer - OneToOne - AutoML (askl2) Processed - Transform/Transform/A_OneToOne_7Features_Transform_30.xlsx
+++ b/AutoML CV/Transfer - OneToOne - AutoML (askl2) Processed - Transform/Transform/A_OneToOne_7Features_Transform_30.xlsx
@@ -171,7 +171,7 @@
   </sheetPr>
   <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -211,15 +211,15 @@
         <v>7</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.863703703703704</v>
+        <v>0.817407407407407</v>
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">AVERAGE(D2:D145)</f>
-        <v>0.700411522633745</v>
+        <v>0.839462448559671</v>
       </c>
       <c r="H2" s="0" t="n">
         <f aca="false">STDEV(D2:D145)</f>
-        <v>0.158167669685951</v>
+        <v>0.088102232527499</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -233,7 +233,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.683703703703704</v>
+        <v>0.844814814814815</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -247,7 +247,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.718148148148148</v>
+        <v>0.792962962962963</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -261,7 +261,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.908148148148148</v>
+        <v>0.903333333333333</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -275,7 +275,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.523703703703704</v>
+        <v>0.883703703703704</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -289,7 +289,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.795925925925926</v>
+        <v>0.722222222222222</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -303,7 +303,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.854444444444445</v>
+        <v>0.852962962962963</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -317,7 +317,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.512962962962963</v>
+        <v>0.852222222222222</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -331,7 +331,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0.877037037037037</v>
+        <v>0.884074074074074</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -345,7 +345,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.731481481481482</v>
+        <v>0.876666666666667</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -359,7 +359,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.832962962962963</v>
+        <v>0.904444444444445</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -373,7 +373,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.895185185185185</v>
+        <v>0.898148148148148</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -387,7 +387,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.53</v>
+        <v>0.841481481481482</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -401,7 +401,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.926296296296296</v>
+        <v>0.924074074074074</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -415,7 +415,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.953703703703704</v>
+        <v>0.948888888888889</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -429,7 +429,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.615185185185185</v>
+        <v>0.897037037037037</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -443,7 +443,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.704074074074074</v>
+        <v>0.782962962962963</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -457,7 +457,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.495925925925926</v>
+        <v>0.738888888888889</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -471,7 +471,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.562592592592593</v>
+        <v>0.858148148148148</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -485,7 +485,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.788888888888889</v>
+        <v>0.853703703703704</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>0.701481481481482</v>
+        <v>0.852592592592593</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -513,7 +513,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0.534074074074074</v>
+        <v>0.772962962962963</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -527,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>0.555555555555556</v>
+        <v>0.844444444444444</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -541,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0.722222222222222</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -555,7 +555,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.802222222222222</v>
+        <v>0.835185185185185</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -569,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.849259259259259</v>
+        <v>0.844074074074074</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -583,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.55962962962963</v>
+        <v>0.83037037037037</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -597,7 +597,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.808148148148148</v>
+        <v>0.873333333333333</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -611,7 +611,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.740740740740741</v>
+        <v>0.851111111111111</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -625,7 +625,7 @@
         <v>7</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.914444444444444</v>
+        <v>0.924074074074074</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -639,7 +639,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.762222222222222</v>
+        <v>0.83962962962963</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -653,7 +653,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0.695925925925926</v>
+        <v>0.824444444444444</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -667,7 +667,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0.892592592592593</v>
+        <v>0.804074074074074</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -681,7 +681,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0.895185185185185</v>
+        <v>0.894444444444445</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -695,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0.758148148148148</v>
+        <v>0.883333333333333</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -709,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0.718888888888889</v>
+        <v>0.795925925925926</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,7 +723,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0.578888888888889</v>
+        <v>0.868518518518519</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,7 +737,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0.811111111111111</v>
+        <v>0.838888888888889</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -751,7 +751,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0.863703703703704</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -765,7 +765,7 @@
         <v>7</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>0.614814814814815</v>
+        <v>0.887037037037037</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -779,7 +779,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0.734074074074074</v>
+        <v>0.67962962962963</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -793,7 +793,7 @@
         <v>7</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>0.537037037037037</v>
+        <v>0.558148148148148</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -807,7 +807,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>0.43</v>
+        <v>0.821851851851852</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -821,7 +821,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>0.397407407407407</v>
+        <v>0.588518518518519</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -835,7 +835,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>0.838888888888889</v>
+        <v>0.793703703703704</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -849,7 +849,7 @@
         <v>7</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>0.38037037037037</v>
+        <v>0.495925925925926</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -863,7 +863,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>0.523333333333333</v>
+        <v>0.617407407407407</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -877,7 +877,7 @@
         <v>7</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>0.668518518518519</v>
+        <v>0.835925925925926</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -891,7 +891,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>0.837407407407407</v>
+        <v>0.851851851851852</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -905,7 +905,7 @@
         <v>7</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>0.856296296296296</v>
+        <v>0.87037037037037</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -919,7 +919,7 @@
         <v>7</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>0.680740740740741</v>
+        <v>0.832592592592593</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -933,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>0.863333333333333</v>
+        <v>0.927777777777778</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -947,7 +947,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>0.854814814814815</v>
+        <v>0.86037037037037</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -961,7 +961,7 @@
         <v>7</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>0.492962962962963</v>
+        <v>0.825185185185185</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -975,7 +975,7 @@
         <v>7</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>0.861111111111111</v>
+        <v>0.860740740740741</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -989,7 +989,7 @@
         <v>7</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>0.506666666666667</v>
+        <v>0.813703703703704</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1003,7 +1003,7 @@
         <v>7</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>0.758148148148148</v>
+        <v>0.762222222222222</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1017,7 +1017,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>0.894074074074074</v>
+        <v>0.892592592592593</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1031,7 +1031,7 @@
         <v>7</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>0.718148148148148</v>
+        <v>0.882592592592593</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,7 +1045,7 @@
         <v>7</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>0.846296296296296</v>
+        <v>0.931481481481482</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1059,7 +1059,7 @@
         <v>7</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>0.876666666666667</v>
+        <v>0.877037037037037</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1073,7 +1073,7 @@
         <v>7</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>0.53</v>
+        <v>0.841481481481482</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1087,7 +1087,7 @@
         <v>7</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>0.944444444444444</v>
+        <v>0.941481481481482</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1101,7 +1101,7 @@
         <v>7</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>0.579259259259259</v>
+        <v>0.907407407407407</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1115,7 +1115,7 @@
         <v>7</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>0.54037037037037</v>
+        <v>0.85962962962963</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1129,7 +1129,7 @@
         <v>7</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>0.47</v>
+        <v>0.858518518518519</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1143,7 +1143,7 @@
         <v>7</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>0.40962962962963</v>
+        <v>0.907407407407407</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1157,7 +1157,7 @@
         <v>7</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>0.561111111111111</v>
+        <v>0.838888888888889</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1171,7 +1171,7 @@
         <v>7</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>0.555925925925926</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1185,7 +1185,7 @@
         <v>7</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>0.69962962962963</v>
+        <v>0.875185185185185</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,7 +1199,7 @@
         <v>7</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>0.441111111111111</v>
+        <v>0.771481481481481</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1213,7 +1213,7 @@
         <v>7</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>0.439259259259259</v>
+        <v>0.875925925925926</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>0.863703703703704</v>
+        <v>0.861481481481482</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1241,7 +1241,7 @@
         <v>7</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>0.683703703703704</v>
+        <v>0.854444444444445</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,7 +1255,7 @@
         <v>7</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>0.718148148148148</v>
+        <v>0.808148148148148</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,7 +1269,7 @@
         <v>7</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>0.908148148148148</v>
+        <v>0.902592592592593</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1283,7 +1283,7 @@
         <v>7</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>0.523703703703704</v>
+        <v>0.881851851851852</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1297,7 +1297,7 @@
         <v>7</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>0.795925925925926</v>
+        <v>0.771111111111111</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1311,7 +1311,7 @@
         <v>7</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>0.854444444444445</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1325,7 +1325,7 @@
         <v>7</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>0.512962962962963</v>
+        <v>0.854074074074074</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1339,7 +1339,7 @@
         <v>7</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>0.874814814814815</v>
+        <v>0.882962962962963</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,7 +1353,7 @@
         <v>7</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>0.731481481481482</v>
+        <v>0.867037037037037</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1367,7 +1367,7 @@
         <v>7</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>0.827407407407407</v>
+        <v>0.902962962962963</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1381,7 +1381,7 @@
         <v>7</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>0.895555555555556</v>
+        <v>0.899259259259259</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1395,7 +1395,7 @@
         <v>7</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>0.530740740740741</v>
+        <v>0.840740740740741</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1409,7 +1409,7 @@
         <v>7</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>0.924444444444444</v>
+        <v>0.923333333333333</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1423,7 +1423,7 @@
         <v>7</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>0.954074074074074</v>
+        <v>0.948148148148148</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1437,7 +1437,7 @@
         <v>7</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>0.571111111111111</v>
+        <v>0.891851851851852</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1451,7 +1451,7 @@
         <v>7</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>0.687407407407407</v>
+        <v>0.850740740740741</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,7 +1465,7 @@
         <v>7</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>0.482592592592593</v>
+        <v>0.862962962962963</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1479,7 +1479,7 @@
         <v>7</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>0.564444444444444</v>
+        <v>0.923333333333333</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,7 +1493,7 @@
         <v>7</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>0.772222222222222</v>
+        <v>0.868888888888889</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,7 +1507,7 @@
         <v>7</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>0.713703703703704</v>
+        <v>0.851111111111111</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1521,7 +1521,7 @@
         <v>7</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>0.507037037037037</v>
+        <v>0.873703703703704</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1535,7 +1535,7 @@
         <v>7</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>0.56</v>
+        <v>0.900740740740741</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1549,7 +1549,7 @@
         <v>7</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>0.723703703703704</v>
+        <v>0.891851851851852</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1563,7 +1563,7 @@
         <v>7</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>0.814444444444444</v>
+        <v>0.813333333333333</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1577,7 +1577,7 @@
         <v>7</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>0.849259259259259</v>
+        <v>0.795555555555556</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1591,7 +1591,7 @@
         <v>7</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>0.561111111111111</v>
+        <v>0.829259259259259</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1605,7 +1605,7 @@
         <v>7</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>0.808518518518519</v>
+        <v>0.872962962962963</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1619,7 +1619,7 @@
         <v>7</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>0.743333333333333</v>
+        <v>0.851481481481482</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1633,7 +1633,7 @@
         <v>7</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>0.915555555555556</v>
+        <v>0.922962962962963</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1647,7 +1647,7 @@
         <v>7</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>0.75962962962963</v>
+        <v>0.83962962962963</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1661,7 +1661,7 @@
         <v>7</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>0.704074074074074</v>
+        <v>0.822592592592593</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1675,7 +1675,7 @@
         <v>7</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>0.888518518518519</v>
+        <v>0.881851851851852</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1689,7 +1689,7 @@
         <v>7</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>0.893703703703704</v>
+        <v>0.907777777777778</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1703,7 +1703,7 @@
         <v>7</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>0.773333333333333</v>
+        <v>0.892222222222222</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1717,7 +1717,7 @@
         <v>7</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>0.712962962962963</v>
+        <v>0.842962962962963</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1731,7 +1731,7 @@
         <v>7</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>0.576666666666667</v>
+        <v>0.863703703703704</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1745,7 +1745,7 @@
         <v>7</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>0.804444444444444</v>
+        <v>0.795925925925926</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1759,7 +1759,7 @@
         <v>7</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>0.877407407407407</v>
+        <v>0.902222222222222</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1773,7 +1773,7 @@
         <v>7</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>0.561111111111111</v>
+        <v>0.889259259259259</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1787,7 +1787,7 @@
         <v>7</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>0.81037037037037</v>
+        <v>0.724074074074074</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1801,7 +1801,7 @@
         <v>7</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>0.608518518518519</v>
+        <v>0.588518518518519</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1815,7 +1815,7 @@
         <v>7</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>0.642222222222222</v>
+        <v>0.727037037037037</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1829,7 +1829,7 @@
         <v>7</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>0.491851851851852</v>
+        <v>0.520740740740741</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1843,7 +1843,7 @@
         <v>7</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>0.837407407407407</v>
+        <v>0.812962962962963</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,7 +1857,7 @@
         <v>7</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>0.46037037037037</v>
+        <v>0.417777777777778</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1871,7 +1871,7 @@
         <v>7</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>0.547777777777778</v>
+        <v>0.545555555555556</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1885,7 +1885,7 @@
         <v>7</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>0.686666666666667</v>
+        <v>0.762592592592593</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1899,7 +1899,7 @@
         <v>7</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>0.794444444444444</v>
+        <v>0.85037037037037</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1913,7 +1913,7 @@
         <v>7</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>0.827777777777778</v>
+        <v>0.87037037037037</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,7 +1927,7 @@
         <v>7</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>0.681481481481482</v>
+        <v>0.832222222222222</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1941,7 +1941,7 @@
         <v>7</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>0.862962962962963</v>
+        <v>0.925185185185185</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1955,7 +1955,7 @@
         <v>7</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>0.852222222222222</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1969,7 +1969,7 @@
         <v>7</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>0.512962962962963</v>
+        <v>0.827777777777778</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1983,7 +1983,7 @@
         <v>7</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>0.86</v>
+        <v>0.86037037037037</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1997,7 +1997,7 @@
         <v>7</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>0.512592592592593</v>
+        <v>0.812962962962963</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2011,7 +2011,7 @@
         <v>7</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>0.757777777777778</v>
+        <v>0.763333333333333</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2025,7 +2025,7 @@
         <v>7</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>0.885925925925926</v>
+        <v>0.894814814814815</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2039,7 +2039,7 @@
         <v>7</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>0.706666666666667</v>
+        <v>0.885555555555556</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2053,7 +2053,7 @@
         <v>7</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>0.844074074074074</v>
+        <v>0.93037037037037</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2067,7 +2067,7 @@
         <v>7</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>0.876296296296296</v>
+        <v>0.879259259259259</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2081,7 +2081,7 @@
         <v>7</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>0.528148148148148</v>
+        <v>0.84037037037037</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2095,7 +2095,7 @@
         <v>7</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>0.942592592592593</v>
+        <v>0.941481481481482</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2109,7 +2109,7 @@
         <v>7</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>0.58</v>
+        <v>0.907777777777778</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2123,7 +2123,7 @@
         <v>7</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>0.455555555555556</v>
+        <v>0.865555555555556</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2137,7 +2137,7 @@
         <v>7</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>0.461481481481482</v>
+        <v>0.877407407407407</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2151,7 +2151,7 @@
         <v>7</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>0.40962962962963</v>
+        <v>0.907037037037037</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2165,7 +2165,7 @@
         <v>7</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>0.586296296296296</v>
+        <v>0.863703703703704</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2179,7 +2179,7 @@
         <v>7</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>0.481851851851852</v>
+        <v>0.886666666666667</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2193,7 +2193,7 @@
         <v>7</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>0.699259259259259</v>
+        <v>0.871481481481482</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2207,7 +2207,7 @@
         <v>7</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>0.451851851851852</v>
+        <v>0.795925925925926</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2221,7 +2221,7 @@
         <v>7</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>0.496296296296296</v>
+        <v>0.886666666666667</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
